--- a/config_11.23/act_ty_gifts_config.xlsx
+++ b/config_11.23/act_ty_gifts_config.xlsx
@@ -379,10 +379,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢礼包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"60万金币","6万","南瓜加成"</t>
   </si>
   <si>
@@ -533,6 +529,10 @@
   </si>
   <si>
     <t>act_012_gelb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +920,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1060,16 +1060,16 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="E5" s="5">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="F5" s="5">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -1086,13 +1086,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E6" s="5">
         <v>1636416000</v>
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="J14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="O14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>49</v>
@@ -1854,25 +1854,25 @@
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="J15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>49</v>
@@ -1898,25 +1898,25 @@
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="J16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="O16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>49</v>
@@ -1942,25 +1942,25 @@
         <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>49</v>
@@ -1971,10 +1971,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>39</v>
@@ -1986,25 +1986,25 @@
         <v>41</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>49</v>
@@ -2015,10 +2015,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>51</v>
@@ -2030,25 +2030,25 @@
         <v>41</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>49</v>
@@ -2059,10 +2059,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>56</v>
@@ -2074,25 +2074,25 @@
         <v>41</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="J20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>49</v>
@@ -2103,10 +2103,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>60</v>
@@ -2118,25 +2118,25 @@
         <v>41</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="J21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O21" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>49</v>

--- a/config_11.23/act_ty_gifts_config.xlsx
+++ b/config_11.23/act_ty_gifts_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -409,15 +409,6 @@
     <t>"任意购买1个礼包,南瓜增加10%;\n任意购买2个礼包,南瓜增加30%;\n任意购买3个礼包,南瓜增加50%。"</t>
   </si>
   <si>
-    <t>"hflb_btn_bx","ty_icon_yxb_3","act_010_khlb_icon_ngjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_010_khlb_icon_ngjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_010_khlb_icon_ngjc"</t>
-  </si>
-  <si>
     <t>act_011_ssylb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -534,6 +525,15 @@
   <si>
     <t>感恩礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yxb_3","act_012_gelb_gelb_icon_hjtjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_012_gelb_gelb_icon_hjtjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_012_gelb_gelb_icon_hjtjc"</t>
   </si>
 </sst>
 </file>
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1060,10 +1060,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E5" s="5">
         <v>1637625600</v>
@@ -1086,13 +1086,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="5">
         <v>1636416000</v>
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1819,13 +1819,13 @@
         <v>109</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>116</v>
@@ -1863,13 +1863,13 @@
         <v>112</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>116</v>
@@ -1907,13 +1907,13 @@
         <v>114</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>116</v>
@@ -1951,13 +1951,13 @@
         <v>115</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>116</v>
@@ -1971,10 +1971,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>39</v>
@@ -1986,25 +1986,25 @@
         <v>41</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>49</v>
@@ -2015,10 +2015,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>51</v>
@@ -2030,25 +2030,25 @@
         <v>41</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>49</v>
@@ -2059,10 +2059,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>56</v>
@@ -2074,25 +2074,25 @@
         <v>41</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>49</v>
@@ -2103,10 +2103,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>60</v>
@@ -2118,25 +2118,25 @@
         <v>41</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="K21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O21" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>49</v>
